--- a/STOCK UTN/2023/11 NOVEMBER/20 NOVEMBER 25 NOVEMBER 2023.xlsx
+++ b/STOCK UTN/2023/11 NOVEMBER/20 NOVEMBER 25 NOVEMBER 2023.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'JK KENKO'!$A$80:$C$221</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">IMPORT!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -13963,7 +13963,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 20 NOVEMBER 25 NOVEMBER 2023</v>
+        <v>TANGGAL : __testData</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -39083,8 +39083,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A976" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A1013" sqref="A1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
